--- a/assets/downloadables/DIP.xlsx
+++ b/assets/downloadables/DIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Systems\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F0C298-D253-45DD-B009-C38A31C7121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5541026C-A717-4479-B6EF-069B2BE1F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="-4455" windowWidth="28560" windowHeight="15030" activeTab="2" xr2:uid="{FB9373CD-634A-471E-ACC0-43155163C41E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="17145" activeTab="10" xr2:uid="{FB9373CD-634A-471E-ACC0-43155163C41E}"/>
   </bookViews>
   <sheets>
     <sheet name="t1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mmm\-d"/>
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1571,129 +1571,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,199 +1592,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1922,24 +1628,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1964,55 +1652,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2134,7 +1777,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2227,6 +1870,363 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,120 +2550,120 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="59.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="19" t="s">
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="137" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22" t="s">
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25" t="s">
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="22" t="s">
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="25" t="s">
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="20"/>
+      <c r="AO2" s="138"/>
     </row>
     <row r="3" spans="1:48" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2685,37 +2685,37 @@
       <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="32" t="s">
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="36" t="s">
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="36" t="s">
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="136"/>
       <c r="AI3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2731,8 +2731,8 @@
       <c r="AM3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="21"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="139"/>
     </row>
     <row r="4" spans="1:48" ht="32.25" thickTop="1" thickBot="1">
       <c r="A4" s="3"/>
@@ -2776,7 +2776,7 @@
       <c r="U4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="27"/>
+      <c r="V4" s="140"/>
       <c r="W4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="31"/>
+      <c r="AN4" s="129"/>
       <c r="AO4" s="5"/>
     </row>
     <row r="5" spans="1:48" ht="17.25" thickTop="1" thickBot="1">
@@ -2865,1734 +2865,1734 @@
       <c r="AO5" s="13"/>
     </row>
     <row r="6" spans="1:48" ht="18.75" customHeight="1">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="172" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="173">
-        <f t="shared" ref="E6:E13" si="0">SUM(F6:G6)</f>
+      <c r="E6" s="54">
+        <f t="shared" ref="E6:E7" si="0">SUM(F6:G6)</f>
         <v>494</v>
       </c>
-      <c r="F6" s="174">
+      <c r="F6" s="55">
         <f>37+14+8+11+25+0+20+44+23+20+13+20+22+4</f>
         <v>261</v>
       </c>
-      <c r="G6" s="174">
+      <c r="G6" s="55">
         <f>45+18+10+8+13+60+10+16+15+8+3+3+18+6</f>
         <v>233</v>
       </c>
-      <c r="H6" s="174">
+      <c r="H6" s="55">
         <f>2+6+3+1+5+6+19</f>
         <v>42</v>
       </c>
-      <c r="I6" s="174">
+      <c r="I6" s="55">
         <f>14+7+4+2+27+7</f>
         <v>61</v>
       </c>
-      <c r="J6" s="174"/>
-      <c r="K6" s="175">
-        <f t="shared" ref="K6:K10" si="1">L6+Q6</f>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56">
+        <f t="shared" ref="K6:K7" si="1">L6+Q6</f>
         <v>14</v>
       </c>
-      <c r="L6" s="176">
-        <f t="shared" ref="L6:L10" si="2">SUM(M6:P6)</f>
+      <c r="L6" s="57">
+        <f t="shared" ref="L6:L7" si="2">SUM(M6:P6)</f>
         <v>6</v>
       </c>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176">
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57">
         <v>1</v>
       </c>
-      <c r="P6" s="176">
+      <c r="P6" s="57">
         <v>5</v>
       </c>
-      <c r="Q6" s="176">
-        <f t="shared" ref="Q6:Q10" si="3">SUM(R6:U6)</f>
+      <c r="Q6" s="57">
+        <f t="shared" ref="Q6:Q7" si="3">SUM(R6:U6)</f>
         <v>8</v>
       </c>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177">
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58">
         <v>8</v>
       </c>
-      <c r="V6" s="177"/>
-      <c r="W6" s="178">
-        <f t="shared" ref="W6:W10" si="4">X6+Y6</f>
+      <c r="V6" s="58"/>
+      <c r="W6" s="59">
+        <f t="shared" ref="W6:W7" si="4">X6+Y6</f>
         <v>243</v>
       </c>
-      <c r="X6" s="179">
+      <c r="X6" s="60">
         <v>147</v>
       </c>
-      <c r="Y6" s="179">
+      <c r="Y6" s="60">
         <v>96</v>
       </c>
-      <c r="Z6" s="179">
+      <c r="Z6" s="60">
         <v>18</v>
       </c>
-      <c r="AA6" s="179">
+      <c r="AA6" s="60">
         <v>49</v>
       </c>
-      <c r="AB6" s="179"/>
-      <c r="AC6" s="180">
-        <f t="shared" ref="AC6:AC10" si="5">AD6+AE6</f>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="61">
+        <f t="shared" ref="AC6:AC7" si="5">AD6+AE6</f>
         <v>251</v>
       </c>
-      <c r="AD6" s="179">
+      <c r="AD6" s="60">
         <v>114</v>
       </c>
-      <c r="AE6" s="180">
+      <c r="AE6" s="61">
         <v>137</v>
       </c>
-      <c r="AF6" s="179">
+      <c r="AF6" s="60">
         <v>24</v>
       </c>
-      <c r="AG6" s="179">
+      <c r="AG6" s="60">
         <v>88</v>
       </c>
-      <c r="AH6" s="179"/>
-      <c r="AI6" s="181">
-        <f t="shared" ref="AI6:AI10" si="6">SUM(AJ6:AM6)</f>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="62">
+        <f t="shared" ref="AI6:AI7" si="6">SUM(AJ6:AM6)</f>
         <v>14</v>
       </c>
-      <c r="AJ6" s="182">
+      <c r="AJ6" s="63">
         <f t="shared" ref="AJ6:AM7" si="7">M6+R6</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="182">
+      <c r="AK6" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="182">
+      <c r="AL6" s="63">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AM6" s="182">
+      <c r="AM6" s="63">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="AN6" s="170"/>
-      <c r="AO6" s="183"/>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="184"/>
-      <c r="AT6" s="184"/>
-      <c r="AU6" s="184"/>
-      <c r="AV6" s="184"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
     </row>
     <row r="7" spans="1:48" ht="18.75" customHeight="1">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="173">
+      <c r="E7" s="54">
         <f t="shared" si="0"/>
         <v>1231</v>
       </c>
-      <c r="F7" s="174">
+      <c r="F7" s="55">
         <f>401+246+0+34</f>
         <v>681</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="55">
         <f>172+220+120+38</f>
         <v>550</v>
       </c>
-      <c r="H7" s="174">
+      <c r="H7" s="55">
         <f>344+415+120+72</f>
         <v>951</v>
       </c>
-      <c r="I7" s="174">
+      <c r="I7" s="55">
         <f>45+37+10+5</f>
         <v>97</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="175">
+      <c r="J7" s="55"/>
+      <c r="K7" s="56">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L7" s="176">
+      <c r="L7" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177">
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58">
         <v>4</v>
       </c>
-      <c r="V7" s="177"/>
-      <c r="W7" s="178">
+      <c r="V7" s="58"/>
+      <c r="W7" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="180">
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61">
         <f t="shared" si="5"/>
         <v>1231</v>
       </c>
-      <c r="AD7" s="179">
+      <c r="AD7" s="60">
         <v>681</v>
       </c>
-      <c r="AE7" s="180">
+      <c r="AE7" s="61">
         <v>550</v>
       </c>
-      <c r="AF7" s="179">
+      <c r="AF7" s="60">
         <v>97</v>
       </c>
-      <c r="AG7" s="179">
+      <c r="AG7" s="60">
         <v>961</v>
       </c>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="181">
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="62">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="182">
+      <c r="AJ7" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="182">
+      <c r="AK7" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="182">
+      <c r="AL7" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="182">
+      <c r="AM7" s="63">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AN7" s="170"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="184"/>
-      <c r="AQ7" s="184"/>
-      <c r="AR7" s="184"/>
-      <c r="AS7" s="184"/>
-      <c r="AT7" s="184"/>
-      <c r="AU7" s="184"/>
-      <c r="AV7" s="184"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
     </row>
     <row r="8" spans="1:48" ht="18" customHeight="1">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="186">
+      <c r="B8" s="67">
         <v>1</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="188">
+      <c r="D8" s="68"/>
+      <c r="E8" s="69">
         <f>SUM(E9:E12)</f>
         <v>2274</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="69">
         <v>1372</v>
       </c>
-      <c r="G8" s="188">
+      <c r="G8" s="69">
         <f>E8-F8</f>
         <v>902</v>
       </c>
-      <c r="H8" s="188">
+      <c r="H8" s="69">
         <v>207</v>
       </c>
-      <c r="I8" s="188">
+      <c r="I8" s="69">
         <v>528</v>
       </c>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189">
+      <c r="J8" s="69"/>
+      <c r="K8" s="70">
         <f t="shared" ref="K8:U8" si="8">SUM(K9:K12)</f>
         <v>23</v>
       </c>
-      <c r="L8" s="190">
+      <c r="L8" s="71">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="M8" s="190">
+      <c r="M8" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="71">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O8" s="190">
+      <c r="O8" s="71">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="P8" s="190">
+      <c r="P8" s="71">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Q8" s="190">
+      <c r="Q8" s="71">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="R8" s="190">
+      <c r="R8" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S8" s="190">
+      <c r="S8" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T8" s="190">
+      <c r="T8" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U8" s="190">
+      <c r="U8" s="71">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="V8" s="191"/>
-      <c r="W8" s="192">
+      <c r="V8" s="72"/>
+      <c r="W8" s="73">
         <f t="shared" ref="W8:AM8" si="9">SUM(W9:W12)</f>
         <v>1748</v>
       </c>
-      <c r="X8" s="192">
+      <c r="X8" s="73">
         <f t="shared" si="9"/>
         <v>1043</v>
       </c>
-      <c r="Y8" s="192">
+      <c r="Y8" s="73">
         <f t="shared" si="9"/>
         <v>705</v>
       </c>
-      <c r="Z8" s="192">
+      <c r="Z8" s="73">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="AA8" s="192">
+      <c r="AA8" s="73">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="AB8" s="192">
+      <c r="AB8" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="192">
+      <c r="AC8" s="73">
         <f t="shared" si="9"/>
         <v>526</v>
       </c>
-      <c r="AD8" s="192">
+      <c r="AD8" s="73">
         <f t="shared" si="9"/>
         <v>287</v>
       </c>
-      <c r="AE8" s="192">
+      <c r="AE8" s="73">
         <f t="shared" si="9"/>
         <v>239</v>
       </c>
-      <c r="AF8" s="192">
+      <c r="AF8" s="73">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="AG8" s="192">
+      <c r="AG8" s="73">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="AH8" s="192">
+      <c r="AH8" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="193">
+      <c r="AI8" s="74">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AJ8" s="194">
+      <c r="AJ8" s="75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="194">
+      <c r="AK8" s="75">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AL8" s="194">
+      <c r="AL8" s="75">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="AM8" s="194">
+      <c r="AM8" s="75">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN8" s="195"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="197"/>
-      <c r="AQ8" s="197"/>
-      <c r="AR8" s="197"/>
-      <c r="AS8" s="197"/>
-      <c r="AT8" s="197"/>
-      <c r="AU8" s="197"/>
-      <c r="AV8" s="197"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="173">
+      <c r="E9" s="54">
         <f t="shared" ref="E9:E10" si="10">SUM(F9:G9)</f>
         <v>373</v>
       </c>
-      <c r="F9" s="174">
+      <c r="F9" s="55">
         <f t="shared" ref="F9:G12" si="11">X9+AD9</f>
         <v>231</v>
       </c>
-      <c r="G9" s="198">
+      <c r="G9" s="79">
         <f t="shared" si="11"/>
         <v>142</v>
       </c>
-      <c r="H9" s="174">
+      <c r="H9" s="55">
         <v>33</v>
       </c>
-      <c r="I9" s="174">
+      <c r="I9" s="55">
         <v>64</v>
       </c>
-      <c r="J9" s="174"/>
-      <c r="K9" s="199">
+      <c r="J9" s="55"/>
+      <c r="K9" s="80">
         <f t="shared" ref="K9:K12" si="12">L9+Q9</f>
         <v>5</v>
       </c>
-      <c r="L9" s="200">
+      <c r="L9" s="81">
         <f t="shared" ref="L9:L12" si="13">SUM(M9:P9)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="200">
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="81">
         <v>1</v>
       </c>
-      <c r="P9" s="200">
+      <c r="P9" s="81">
         <v>2</v>
       </c>
-      <c r="Q9" s="200">
+      <c r="Q9" s="81">
         <f t="shared" ref="Q9:Q12" si="14">SUM(R9:U9)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="203">
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84">
         <v>2</v>
       </c>
-      <c r="V9" s="177"/>
-      <c r="W9" s="204">
+      <c r="V9" s="58"/>
+      <c r="W9" s="85">
         <f t="shared" ref="W9:W12" si="15">X9+Y9</f>
         <v>243</v>
       </c>
-      <c r="X9" s="183">
+      <c r="X9" s="64">
         <v>146</v>
       </c>
-      <c r="Y9" s="183">
+      <c r="Y9" s="64">
         <v>97</v>
       </c>
-      <c r="Z9" s="183">
+      <c r="Z9" s="64">
         <v>13</v>
       </c>
-      <c r="AA9" s="183">
+      <c r="AA9" s="64">
         <v>30</v>
       </c>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183">
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64">
         <f t="shared" ref="AC9:AC12" si="16">AD9+AE9</f>
         <v>130</v>
       </c>
-      <c r="AD9" s="183">
+      <c r="AD9" s="64">
         <v>85</v>
       </c>
-      <c r="AE9" s="183">
+      <c r="AE9" s="64">
         <v>45</v>
       </c>
-      <c r="AF9" s="183">
+      <c r="AF9" s="64">
         <v>20</v>
       </c>
-      <c r="AG9" s="183">
+      <c r="AG9" s="64">
         <v>34</v>
       </c>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="205">
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="86">
         <f t="shared" ref="AI9:AI12" si="17">SUM(AJ9:AN9)</f>
         <v>3</v>
       </c>
-      <c r="AJ9" s="206"/>
-      <c r="AK9" s="206"/>
-      <c r="AL9" s="207">
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88">
         <v>3</v>
       </c>
-      <c r="AM9" s="206"/>
-      <c r="AN9" s="171"/>
-      <c r="AO9" s="208"/>
-      <c r="AP9" s="209"/>
-      <c r="AQ9" s="209"/>
-      <c r="AR9" s="209"/>
-      <c r="AS9" s="209"/>
-      <c r="AT9" s="209"/>
-      <c r="AU9" s="209"/>
-      <c r="AV9" s="209"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="54">
         <f t="shared" si="10"/>
         <v>278</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="55">
         <f t="shared" si="11"/>
         <v>182</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="79">
         <f t="shared" si="11"/>
         <v>96</v>
       </c>
-      <c r="H10" s="174">
+      <c r="H10" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="174">
+      <c r="I10" s="55">
         <v>3</v>
       </c>
-      <c r="J10" s="174"/>
-      <c r="K10" s="199">
+      <c r="J10" s="55"/>
+      <c r="K10" s="80">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L10" s="200">
+      <c r="L10" s="81">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="200">
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="81">
         <v>2</v>
       </c>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="200">
+      <c r="P10" s="82"/>
+      <c r="Q10" s="81">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="203">
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84">
         <v>1</v>
       </c>
-      <c r="V10" s="177"/>
-      <c r="W10" s="204">
+      <c r="V10" s="58"/>
+      <c r="W10" s="85">
         <f t="shared" si="15"/>
         <v>232</v>
       </c>
-      <c r="X10" s="183">
+      <c r="X10" s="64">
         <v>151</v>
       </c>
-      <c r="Y10" s="183">
+      <c r="Y10" s="64">
         <v>81</v>
       </c>
-      <c r="Z10" s="183">
+      <c r="Z10" s="64">
         <v>1</v>
       </c>
-      <c r="AA10" s="183">
+      <c r="AA10" s="64">
         <v>3</v>
       </c>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="210">
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="91">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="AD10" s="210">
+      <c r="AD10" s="91">
         <v>31</v>
       </c>
-      <c r="AE10" s="210">
+      <c r="AE10" s="91">
         <v>15</v>
       </c>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="205">
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="86">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="206"/>
-      <c r="AK10" s="206"/>
-      <c r="AL10" s="207">
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="88">
         <v>2</v>
       </c>
-      <c r="AM10" s="211">
+      <c r="AM10" s="92">
         <v>2</v>
       </c>
-      <c r="AN10" s="171"/>
-      <c r="AO10" s="208"/>
-      <c r="AP10" s="209"/>
-      <c r="AQ10" s="209"/>
-      <c r="AR10" s="209"/>
-      <c r="AS10" s="209"/>
-      <c r="AT10" s="209"/>
-      <c r="AU10" s="209"/>
-      <c r="AV10" s="209"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="212">
+      <c r="E11" s="93">
         <v>574</v>
       </c>
-      <c r="F11" s="174">
+      <c r="F11" s="55">
         <f t="shared" si="11"/>
         <v>287</v>
       </c>
-      <c r="G11" s="198">
+      <c r="G11" s="79">
         <f t="shared" si="11"/>
         <v>287</v>
       </c>
-      <c r="H11" s="174">
+      <c r="H11" s="55">
         <v>1</v>
       </c>
-      <c r="I11" s="174">
+      <c r="I11" s="55">
         <v>0</v>
       </c>
-      <c r="J11" s="174"/>
-      <c r="K11" s="199">
+      <c r="J11" s="55"/>
+      <c r="K11" s="80">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="L11" s="200">
+      <c r="L11" s="81">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="M11" s="201"/>
-      <c r="N11" s="200">
+      <c r="M11" s="82"/>
+      <c r="N11" s="81">
         <v>1</v>
       </c>
-      <c r="O11" s="200">
+      <c r="O11" s="81">
         <v>1</v>
       </c>
-      <c r="P11" s="200">
+      <c r="P11" s="81">
         <v>6</v>
       </c>
-      <c r="Q11" s="200">
+      <c r="Q11" s="81">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R11" s="202"/>
-      <c r="S11" s="202"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="203">
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84">
         <v>1</v>
       </c>
-      <c r="V11" s="177"/>
-      <c r="W11" s="204">
+      <c r="V11" s="58"/>
+      <c r="W11" s="85">
         <f t="shared" si="15"/>
         <v>523</v>
       </c>
-      <c r="X11" s="183">
+      <c r="X11" s="64">
         <v>259</v>
       </c>
-      <c r="Y11" s="183">
+      <c r="Y11" s="64">
         <v>264</v>
       </c>
-      <c r="Z11" s="183">
+      <c r="Z11" s="64">
         <v>1</v>
       </c>
-      <c r="AA11" s="183">
+      <c r="AA11" s="64">
         <v>0</v>
       </c>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183">
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="AD11" s="183">
+      <c r="AD11" s="64">
         <v>28</v>
       </c>
-      <c r="AE11" s="183">
+      <c r="AE11" s="64">
         <v>23</v>
       </c>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="205">
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="86">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="AJ11" s="206"/>
-      <c r="AK11" s="211">
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="92">
         <v>2</v>
       </c>
-      <c r="AL11" s="207">
+      <c r="AL11" s="88">
         <v>3</v>
       </c>
-      <c r="AM11" s="206"/>
-      <c r="AN11" s="171"/>
-      <c r="AO11" s="208"/>
-      <c r="AP11" s="209"/>
-      <c r="AQ11" s="209"/>
-      <c r="AR11" s="209"/>
-      <c r="AS11" s="209"/>
-      <c r="AT11" s="209"/>
-      <c r="AU11" s="209"/>
-      <c r="AV11" s="209"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="212">
+      <c r="E12" s="93">
         <v>1049</v>
       </c>
-      <c r="F12" s="174">
+      <c r="F12" s="55">
         <f t="shared" si="11"/>
         <v>630</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="79">
         <f t="shared" si="11"/>
         <v>419</v>
       </c>
-      <c r="H12" s="174">
+      <c r="H12" s="55">
         <v>31</v>
       </c>
-      <c r="I12" s="174">
+      <c r="I12" s="55">
         <v>72</v>
       </c>
-      <c r="J12" s="174"/>
-      <c r="K12" s="199">
+      <c r="J12" s="55"/>
+      <c r="K12" s="80">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L12" s="200">
+      <c r="L12" s="81">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="200">
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="81">
         <v>1</v>
       </c>
-      <c r="P12" s="200">
+      <c r="P12" s="81">
         <v>2</v>
       </c>
-      <c r="Q12" s="200">
+      <c r="Q12" s="81">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="203">
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84">
         <v>3</v>
       </c>
-      <c r="V12" s="177"/>
-      <c r="W12" s="204">
+      <c r="V12" s="58"/>
+      <c r="W12" s="85">
         <f t="shared" si="15"/>
         <v>750</v>
       </c>
-      <c r="X12" s="183">
+      <c r="X12" s="64">
         <v>487</v>
       </c>
-      <c r="Y12" s="183">
+      <c r="Y12" s="64">
         <v>263</v>
       </c>
-      <c r="Z12" s="183">
+      <c r="Z12" s="64">
         <v>15</v>
       </c>
-      <c r="AA12" s="183">
+      <c r="AA12" s="64">
         <v>40</v>
       </c>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="210">
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="91">
         <f t="shared" si="16"/>
         <v>299</v>
       </c>
-      <c r="AD12" s="210">
+      <c r="AD12" s="91">
         <v>143</v>
       </c>
-      <c r="AE12" s="183">
+      <c r="AE12" s="64">
         <v>156</v>
       </c>
-      <c r="AF12" s="183">
+      <c r="AF12" s="64">
         <v>16</v>
       </c>
-      <c r="AG12" s="183">
+      <c r="AG12" s="64">
         <v>32</v>
       </c>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="205">
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="86">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="AJ12" s="206"/>
-      <c r="AK12" s="206"/>
-      <c r="AL12" s="207">
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="88">
         <v>2</v>
       </c>
-      <c r="AM12" s="206"/>
-      <c r="AN12" s="171"/>
-      <c r="AO12" s="208"/>
-      <c r="AP12" s="209"/>
-      <c r="AQ12" s="209"/>
-      <c r="AR12" s="209"/>
-      <c r="AS12" s="209"/>
-      <c r="AT12" s="209"/>
-      <c r="AU12" s="209"/>
-      <c r="AV12" s="209"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="186">
+      <c r="B13" s="67">
         <v>1</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="188">
+      <c r="E13" s="69">
         <v>71</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F13" s="69">
         <v>33</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="94">
         <f t="shared" ref="G13:G14" si="18">E13-F13</f>
         <v>38</v>
       </c>
-      <c r="H13" s="188">
+      <c r="H13" s="69">
         <v>12</v>
       </c>
-      <c r="I13" s="188">
+      <c r="I13" s="69">
         <v>0</v>
       </c>
-      <c r="J13" s="188">
+      <c r="J13" s="69">
         <v>0</v>
       </c>
-      <c r="K13" s="188">
+      <c r="K13" s="69">
         <v>1</v>
       </c>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214">
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95">
         <v>1</v>
       </c>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="215"/>
-      <c r="S13" s="215"/>
-      <c r="T13" s="215"/>
-      <c r="U13" s="215"/>
-      <c r="V13" s="215"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="218">
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="99">
         <f>SUM(AC14)</f>
         <v>71</v>
       </c>
-      <c r="AD13" s="217">
+      <c r="AD13" s="98">
         <v>33</v>
       </c>
-      <c r="AE13" s="217">
+      <c r="AE13" s="98">
         <v>38</v>
       </c>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="217"/>
-      <c r="AH13" s="217"/>
-      <c r="AI13" s="219">
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="100">
         <f t="shared" ref="AI13:AM13" si="19">AI14</f>
         <v>1</v>
       </c>
-      <c r="AJ13" s="220">
+      <c r="AJ13" s="101">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="220">
+      <c r="AK13" s="101">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="220">
+      <c r="AL13" s="101">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="219">
+      <c r="AM13" s="100">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AN13" s="221"/>
-      <c r="AO13" s="208">
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="89">
         <v>45222</v>
       </c>
-      <c r="AP13" s="209"/>
-      <c r="AQ13" s="209"/>
-      <c r="AR13" s="209"/>
-      <c r="AS13" s="209"/>
-      <c r="AT13" s="209"/>
-      <c r="AU13" s="209"/>
-      <c r="AV13" s="209"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="51">
         <v>1</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="222">
+      <c r="E14" s="103">
         <v>71</v>
       </c>
-      <c r="F14" s="174">
+      <c r="F14" s="55">
         <v>33</v>
       </c>
-      <c r="G14" s="223">
+      <c r="G14" s="104">
         <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="55">
         <v>0</v>
       </c>
-      <c r="I14" s="174">
+      <c r="I14" s="55">
         <v>0</v>
       </c>
-      <c r="J14" s="174">
+      <c r="J14" s="55">
         <v>0</v>
       </c>
-      <c r="K14" s="175">
+      <c r="K14" s="56">
         <v>1</v>
       </c>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176">
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57">
         <v>1</v>
       </c>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
-      <c r="AC14" s="225">
+      <c r="Q14" s="57"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="106">
         <v>71</v>
       </c>
-      <c r="AD14" s="225">
+      <c r="AD14" s="106">
         <v>33</v>
       </c>
-      <c r="AE14" s="225">
+      <c r="AE14" s="106">
         <v>38</v>
       </c>
-      <c r="AF14" s="224"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="224"/>
-      <c r="AI14" s="226">
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="107">
         <f>SUM(AJ14:AM14)</f>
         <v>1</v>
       </c>
-      <c r="AJ14" s="227"/>
-      <c r="AK14" s="227"/>
-      <c r="AL14" s="227"/>
-      <c r="AM14" s="226">
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="108"/>
+      <c r="AL14" s="108"/>
+      <c r="AM14" s="107">
         <v>1</v>
       </c>
-      <c r="AN14" s="224"/>
-      <c r="AO14" s="224"/>
-      <c r="AP14" s="228"/>
-      <c r="AQ14" s="228"/>
-      <c r="AR14" s="228"/>
-      <c r="AS14" s="228"/>
-      <c r="AT14" s="228"/>
-      <c r="AU14" s="228"/>
-      <c r="AV14" s="228"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="109"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="109"/>
+      <c r="AS14" s="109"/>
+      <c r="AT14" s="109"/>
+      <c r="AU14" s="109"/>
+      <c r="AV14" s="109"/>
     </row>
     <row r="15" spans="1:48" ht="24.75" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="186">
+      <c r="B15" s="67">
         <v>1</v>
       </c>
-      <c r="C15" s="169" t="s">
+      <c r="C15" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="229">
+      <c r="D15" s="68"/>
+      <c r="E15" s="110">
         <f>SUM(E16:E20)</f>
         <v>1401</v>
       </c>
-      <c r="F15" s="186">
+      <c r="F15" s="67">
         <f t="shared" ref="F15:K15" si="20">SUM(F16:F20)</f>
         <v>902</v>
       </c>
-      <c r="G15" s="186">
+      <c r="G15" s="67">
         <f t="shared" si="20"/>
         <v>499</v>
       </c>
-      <c r="H15" s="186">
+      <c r="H15" s="67">
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
-      <c r="I15" s="186">
+      <c r="I15" s="67">
         <f t="shared" si="20"/>
         <v>490</v>
       </c>
-      <c r="J15" s="186">
+      <c r="J15" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K15" s="230">
+      <c r="K15" s="111">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="L15" s="186">
+      <c r="L15" s="67">
         <f t="shared" ref="L15:L20" si="21">SUM(M15:P15)</f>
         <v>6</v>
       </c>
-      <c r="M15" s="186">
+      <c r="M15" s="67">
         <f t="shared" ref="M15:U15" si="22">SUM(M16:M20)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="186">
+      <c r="N15" s="67">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O15" s="186">
+      <c r="O15" s="67">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="P15" s="186">
+      <c r="P15" s="67">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="Q15" s="230">
+      <c r="Q15" s="111">
         <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="R15" s="191">
+      <c r="R15" s="72">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S15" s="191">
+      <c r="S15" s="72">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T15" s="191">
+      <c r="T15" s="72">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U15" s="191">
+      <c r="U15" s="72">
         <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="V15" s="191"/>
-      <c r="W15" s="231">
+      <c r="V15" s="72"/>
+      <c r="W15" s="112">
         <f t="shared" ref="W15:AG15" si="23">SUM(W16:W20)</f>
         <v>946</v>
       </c>
-      <c r="X15" s="231">
+      <c r="X15" s="112">
         <f t="shared" si="23"/>
         <v>587</v>
       </c>
-      <c r="Y15" s="231">
+      <c r="Y15" s="112">
         <f t="shared" si="23"/>
         <v>359</v>
       </c>
-      <c r="Z15" s="231">
+      <c r="Z15" s="112">
         <f t="shared" si="23"/>
         <v>74</v>
       </c>
-      <c r="AA15" s="231">
+      <c r="AA15" s="112">
         <f t="shared" si="23"/>
         <v>317</v>
       </c>
-      <c r="AB15" s="231">
+      <c r="AB15" s="112">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="232">
+      <c r="AC15" s="113">
         <f t="shared" si="23"/>
         <v>455</v>
       </c>
-      <c r="AD15" s="232">
+      <c r="AD15" s="113">
         <f t="shared" si="23"/>
         <v>315</v>
       </c>
-      <c r="AE15" s="232">
+      <c r="AE15" s="113">
         <f t="shared" si="23"/>
         <v>140</v>
       </c>
-      <c r="AF15" s="232">
+      <c r="AF15" s="113">
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="AG15" s="232">
+      <c r="AG15" s="113">
         <f t="shared" si="23"/>
         <v>173</v>
       </c>
-      <c r="AH15" s="232"/>
-      <c r="AI15" s="233">
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114">
         <f t="shared" ref="AI15:AM15" si="24">SUM(AI16:AI21)</f>
         <v>20</v>
       </c>
-      <c r="AJ15" s="234">
+      <c r="AJ15" s="115">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="AK15" s="234">
+      <c r="AK15" s="115">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL15" s="234">
+      <c r="AL15" s="115">
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="AM15" s="234">
+      <c r="AM15" s="115">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="AN15" s="235"/>
-      <c r="AO15" s="236"/>
-      <c r="AP15" s="237"/>
-      <c r="AQ15" s="237"/>
-      <c r="AR15" s="237"/>
-      <c r="AS15" s="237"/>
-      <c r="AT15" s="237"/>
-      <c r="AU15" s="237"/>
-      <c r="AV15" s="237"/>
+      <c r="AN15" s="116"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="183" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="183">
+      <c r="E16" s="64">
         <f t="shared" ref="E16:E19" si="25">F16+G16</f>
         <v>300</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="64">
         <f>84+120</f>
         <v>204</v>
       </c>
-      <c r="G16" s="183">
+      <c r="G16" s="64">
         <f>66+30</f>
         <v>96</v>
       </c>
-      <c r="H16" s="183">
+      <c r="H16" s="64">
         <f>17+9</f>
         <v>26</v>
       </c>
-      <c r="I16" s="183">
+      <c r="I16" s="64">
         <f>46+85</f>
         <v>131</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183">
+      <c r="J16" s="64"/>
+      <c r="K16" s="64">
         <f t="shared" ref="K16:K20" si="26">L16+Q16</f>
         <v>2</v>
       </c>
-      <c r="L16" s="239">
+      <c r="L16" s="120">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="M16" s="239"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239">
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120">
         <v>1</v>
       </c>
-      <c r="P16" s="239"/>
-      <c r="Q16" s="239">
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120">
         <f t="shared" ref="Q16:Q20" si="27">SUM(R16:U16)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="239"/>
-      <c r="S16" s="239"/>
-      <c r="T16" s="239"/>
-      <c r="U16" s="239">
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120">
         <v>1</v>
       </c>
-      <c r="V16" s="239"/>
-      <c r="W16" s="183">
+      <c r="V16" s="120"/>
+      <c r="W16" s="64">
         <f t="shared" ref="W16:W20" si="28">X16+Y16</f>
         <v>150</v>
       </c>
-      <c r="X16" s="183">
+      <c r="X16" s="64">
         <v>84</v>
       </c>
-      <c r="Y16" s="238">
+      <c r="Y16" s="119">
         <v>66</v>
       </c>
-      <c r="Z16" s="238">
+      <c r="Z16" s="119">
         <v>17</v>
       </c>
-      <c r="AA16" s="238">
+      <c r="AA16" s="119">
         <v>46</v>
       </c>
-      <c r="AB16" s="238"/>
-      <c r="AC16" s="238">
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119">
         <f t="shared" ref="AC16:AC20" si="29">AD16+AE16</f>
         <v>150</v>
       </c>
-      <c r="AD16" s="238">
+      <c r="AD16" s="119">
         <v>120</v>
       </c>
-      <c r="AE16" s="238">
+      <c r="AE16" s="119">
         <v>30</v>
       </c>
-      <c r="AF16" s="238">
+      <c r="AF16" s="119">
         <v>9</v>
       </c>
-      <c r="AG16" s="238">
+      <c r="AG16" s="119">
         <v>85</v>
       </c>
-      <c r="AH16" s="238"/>
-      <c r="AI16" s="240">
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="121">
         <f t="shared" ref="AI16:AI20" si="30">SUM(AJ16:AM16)</f>
         <v>7</v>
       </c>
-      <c r="AJ16" s="241">
+      <c r="AJ16" s="122">
         <v>4</v>
       </c>
-      <c r="AK16" s="241">
+      <c r="AK16" s="122">
         <v>1</v>
       </c>
-      <c r="AL16" s="241">
+      <c r="AL16" s="122">
         <f t="shared" ref="AL16:AM16" si="31">O16+T16</f>
         <v>1</v>
       </c>
-      <c r="AM16" s="241">
+      <c r="AM16" s="122">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AN16" s="238"/>
-      <c r="AO16" s="238"/>
-      <c r="AP16" s="242"/>
-      <c r="AQ16" s="242"/>
-      <c r="AR16" s="242"/>
-      <c r="AS16" s="242"/>
-      <c r="AT16" s="242"/>
-      <c r="AU16" s="242"/>
-      <c r="AV16" s="242"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="123"/>
+      <c r="AS16" s="123"/>
+      <c r="AT16" s="123"/>
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
     </row>
     <row r="17" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="183" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="183">
+      <c r="E17" s="64">
         <f t="shared" si="25"/>
         <v>74</v>
       </c>
-      <c r="F17" s="183">
+      <c r="F17" s="64">
         <v>46</v>
       </c>
-      <c r="G17" s="183">
+      <c r="G17" s="64">
         <v>28</v>
       </c>
-      <c r="H17" s="183">
+      <c r="H17" s="64">
         <v>0</v>
       </c>
-      <c r="I17" s="183">
+      <c r="I17" s="64">
         <v>2</v>
       </c>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183">
+      <c r="J17" s="64"/>
+      <c r="K17" s="64">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="L17" s="239">
+      <c r="L17" s="120">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239">
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120">
         <v>1</v>
       </c>
-      <c r="Q17" s="239">
+      <c r="Q17" s="120">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R17" s="239"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="183">
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="64">
         <f t="shared" si="28"/>
         <v>74</v>
       </c>
-      <c r="X17" s="183">
+      <c r="X17" s="64">
         <v>46</v>
       </c>
-      <c r="Y17" s="238">
+      <c r="Y17" s="119">
         <v>28</v>
       </c>
-      <c r="Z17" s="238">
+      <c r="Z17" s="119">
         <v>0</v>
       </c>
-      <c r="AA17" s="238">
+      <c r="AA17" s="119">
         <v>2</v>
       </c>
-      <c r="AB17" s="238"/>
-      <c r="AC17" s="238">
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="238"/>
-      <c r="AH17" s="238"/>
-      <c r="AI17" s="240">
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="121">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AJ17" s="241">
+      <c r="AJ17" s="122">
         <f t="shared" ref="AJ17:AM20" si="32">M17+R17</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="241">
+      <c r="AK17" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="241">
+      <c r="AL17" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="241">
+      <c r="AM17" s="122">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AN17" s="238"/>
-      <c r="AO17" s="238"/>
-      <c r="AP17" s="242"/>
-      <c r="AQ17" s="242"/>
-      <c r="AR17" s="242"/>
-      <c r="AS17" s="242"/>
-      <c r="AT17" s="242"/>
-      <c r="AU17" s="242"/>
-      <c r="AV17" s="242"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="123"/>
+      <c r="AQ17" s="123"/>
+      <c r="AR17" s="123"/>
+      <c r="AS17" s="123"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
     </row>
     <row r="18" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="183" t="s">
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="183">
+      <c r="E18" s="64">
         <f t="shared" si="25"/>
         <v>128</v>
       </c>
-      <c r="F18" s="183">
+      <c r="F18" s="64">
         <f>59+19</f>
         <v>78</v>
       </c>
-      <c r="G18" s="183">
+      <c r="G18" s="64">
         <f>29+21</f>
         <v>50</v>
       </c>
-      <c r="H18" s="183">
+      <c r="H18" s="64">
         <v>15</v>
       </c>
-      <c r="I18" s="183">
+      <c r="I18" s="64">
         <f>88+40</f>
         <v>128</v>
       </c>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183">
+      <c r="J18" s="64"/>
+      <c r="K18" s="64">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="L18" s="239">
+      <c r="L18" s="120">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="M18" s="239"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239">
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120">
         <v>1</v>
       </c>
-      <c r="Q18" s="239">
+      <c r="Q18" s="120">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="R18" s="239"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239">
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120">
         <v>1</v>
       </c>
-      <c r="V18" s="239"/>
-      <c r="W18" s="183">
+      <c r="V18" s="120"/>
+      <c r="W18" s="64">
         <f t="shared" si="28"/>
         <v>40</v>
       </c>
-      <c r="X18" s="206">
+      <c r="X18" s="87">
         <v>19</v>
       </c>
-      <c r="Y18" s="206">
+      <c r="Y18" s="87">
         <v>21</v>
       </c>
-      <c r="Z18" s="206">
+      <c r="Z18" s="87">
         <v>5</v>
       </c>
-      <c r="AA18" s="206">
+      <c r="AA18" s="87">
         <v>40</v>
       </c>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="238">
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="119">
         <f t="shared" si="29"/>
         <v>88</v>
       </c>
-      <c r="AD18" s="206">
+      <c r="AD18" s="87">
         <v>59</v>
       </c>
-      <c r="AE18" s="206">
+      <c r="AE18" s="87">
         <v>29</v>
       </c>
-      <c r="AF18" s="206">
+      <c r="AF18" s="87">
         <v>10</v>
       </c>
-      <c r="AG18" s="206">
+      <c r="AG18" s="87">
         <v>88</v>
       </c>
-      <c r="AH18" s="238"/>
-      <c r="AI18" s="240">
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="121">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="AJ18" s="241">
+      <c r="AJ18" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="241">
+      <c r="AK18" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="241">
+      <c r="AL18" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="241">
+      <c r="AM18" s="122">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="AN18" s="238"/>
-      <c r="AO18" s="238"/>
-      <c r="AP18" s="242"/>
-      <c r="AQ18" s="242"/>
-      <c r="AR18" s="242"/>
-      <c r="AS18" s="242"/>
-      <c r="AT18" s="242"/>
-      <c r="AU18" s="242"/>
-      <c r="AV18" s="242"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="119"/>
+      <c r="AP18" s="123"/>
+      <c r="AQ18" s="123"/>
+      <c r="AR18" s="123"/>
+      <c r="AS18" s="123"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="123"/>
+      <c r="AV18" s="123"/>
     </row>
     <row r="19" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A19" s="185" t="s">
+      <c r="A19" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="183" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="183">
+      <c r="E19" s="64">
         <f t="shared" si="25"/>
         <v>30</v>
       </c>
-      <c r="F19" s="183">
+      <c r="F19" s="64">
         <v>14</v>
       </c>
-      <c r="G19" s="183">
+      <c r="G19" s="64">
         <v>16</v>
       </c>
-      <c r="H19" s="183">
+      <c r="H19" s="64">
         <v>0</v>
       </c>
-      <c r="I19" s="183">
+      <c r="I19" s="64">
         <v>4</v>
       </c>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183">
+      <c r="J19" s="64"/>
+      <c r="K19" s="64">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="L19" s="239">
+      <c r="L19" s="120">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="M19" s="239"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239">
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120">
         <v>1</v>
       </c>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="239">
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R19" s="239"/>
-      <c r="S19" s="239"/>
-      <c r="T19" s="239"/>
-      <c r="U19" s="239"/>
-      <c r="V19" s="239"/>
-      <c r="W19" s="183">
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="64">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="X19" s="183">
+      <c r="X19" s="64">
         <v>14</v>
       </c>
-      <c r="Y19" s="238">
+      <c r="Y19" s="119">
         <v>16</v>
       </c>
-      <c r="Z19" s="238">
+      <c r="Z19" s="119">
         <v>0</v>
       </c>
-      <c r="AA19" s="238">
+      <c r="AA19" s="119">
         <v>4</v>
       </c>
-      <c r="AB19" s="238"/>
-      <c r="AC19" s="238">
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="238"/>
-      <c r="AE19" s="238"/>
-      <c r="AF19" s="238"/>
-      <c r="AG19" s="238"/>
-      <c r="AH19" s="238"/>
-      <c r="AI19" s="240">
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="121">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="241">
+      <c r="AJ19" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="241">
+      <c r="AK19" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="241">
+      <c r="AL19" s="122">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AM19" s="241">
+      <c r="AM19" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="238"/>
-      <c r="AO19" s="238"/>
-      <c r="AP19" s="242"/>
-      <c r="AQ19" s="242"/>
-      <c r="AR19" s="242"/>
-      <c r="AS19" s="242"/>
-      <c r="AT19" s="242"/>
-      <c r="AU19" s="242"/>
-      <c r="AV19" s="242"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="123"/>
+      <c r="AQ19" s="123"/>
+      <c r="AR19" s="123"/>
+      <c r="AS19" s="123"/>
+      <c r="AT19" s="123"/>
+      <c r="AU19" s="123"/>
+      <c r="AV19" s="123"/>
     </row>
     <row r="20" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="238"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="183" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="183">
+      <c r="E20" s="64">
         <v>869</v>
       </c>
-      <c r="F20" s="183">
+      <c r="F20" s="64">
         <v>560</v>
       </c>
-      <c r="G20" s="183">
+      <c r="G20" s="64">
         <v>309</v>
       </c>
-      <c r="H20" s="183">
+      <c r="H20" s="64">
         <v>55</v>
       </c>
-      <c r="I20" s="183">
+      <c r="I20" s="64">
         <v>225</v>
       </c>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183">
+      <c r="J20" s="64"/>
+      <c r="K20" s="64">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="L20" s="239">
+      <c r="L20" s="120">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="M20" s="239"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="239">
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120">
         <v>2</v>
       </c>
-      <c r="Q20" s="239">
+      <c r="Q20" s="120">
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="R20" s="239"/>
-      <c r="S20" s="239"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="239">
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120">
         <v>7</v>
       </c>
-      <c r="V20" s="239"/>
-      <c r="W20" s="183">
+      <c r="V20" s="120"/>
+      <c r="W20" s="64">
         <f t="shared" si="28"/>
         <v>652</v>
       </c>
-      <c r="X20" s="206">
+      <c r="X20" s="87">
         <v>424</v>
       </c>
-      <c r="Y20" s="206">
+      <c r="Y20" s="87">
         <v>228</v>
       </c>
-      <c r="Z20" s="206">
+      <c r="Z20" s="87">
         <v>52</v>
       </c>
-      <c r="AA20" s="206">
+      <c r="AA20" s="87">
         <v>225</v>
       </c>
-      <c r="AB20" s="206"/>
-      <c r="AC20" s="238">
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="119">
         <f t="shared" si="29"/>
         <v>217</v>
       </c>
-      <c r="AD20" s="206">
+      <c r="AD20" s="87">
         <v>136</v>
       </c>
-      <c r="AE20" s="206">
+      <c r="AE20" s="87">
         <v>81</v>
       </c>
-      <c r="AF20" s="206">
+      <c r="AF20" s="87">
         <v>3</v>
       </c>
-      <c r="AG20" s="206">
+      <c r="AG20" s="87">
         <v>0</v>
       </c>
-      <c r="AH20" s="238"/>
-      <c r="AI20" s="240">
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="121">
         <f t="shared" si="30"/>
         <v>9</v>
       </c>
-      <c r="AJ20" s="241">
+      <c r="AJ20" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="241">
+      <c r="AK20" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="241">
+      <c r="AL20" s="122">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="241">
+      <c r="AM20" s="122">
         <f t="shared" si="32"/>
         <v>9</v>
       </c>
-      <c r="AN20" s="238"/>
-      <c r="AO20" s="238"/>
-      <c r="AP20" s="242"/>
-      <c r="AQ20" s="242"/>
-      <c r="AR20" s="242"/>
-      <c r="AS20" s="242"/>
-      <c r="AT20" s="242"/>
-      <c r="AU20" s="242"/>
-      <c r="AV20" s="242"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="123"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="123"/>
+      <c r="AS20" s="123"/>
+      <c r="AT20" s="123"/>
+      <c r="AU20" s="123"/>
+      <c r="AV20" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AN1"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AN2:AN4"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="W3:AB3"/>
     <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:AN1"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:U2"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4603,94 +4603,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C125286-37EA-43B9-AC27-43DBF2F64377}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="164" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="240" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="166"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="150" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="228" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="150" t="s">
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="153" t="s">
+      <c r="H2" s="229"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="153" t="s">
+      <c r="K2" s="233"/>
+      <c r="L2" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="155"/>
+      <c r="M2" s="233"/>
     </row>
-    <row r="3" spans="1:13" ht="256.5" thickTop="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="162" t="s">
+    <row r="3" spans="1:13" ht="144" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="163"/>
+      <c r="B3" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="47" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4714,32 +4727,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BAAD33-D39C-4E22-960F-07BA4AFA848B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="243" thickBot="1">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:7" ht="99.75" customHeight="1" thickBot="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="168" t="s">
+      <c r="D1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="168" t="s">
+      <c r="G1" s="49" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4757,45 +4779,51 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
     </row>
     <row r="3" spans="1:6" ht="64.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="154"/>
+      <c r="E3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="114" thickTop="1" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4815,59 +4843,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E07309-9749-42FD-BCFF-3C6C5650C385}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="6" customHeight="1"/>
     <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:10" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="58" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="160"/>
     </row>
-    <row r="4" spans="1:10" ht="260.25" thickTop="1" thickBot="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54" t="s">
+    <row r="4" spans="1:10" ht="93" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="158"/>
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4886,125 +4921,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432496A-D203-498C-85BA-E26EA1866013}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="70"/>
+      <c r="T1" s="168"/>
     </row>
     <row r="2" spans="1:20" ht="112.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="73" t="s">
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="176" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="163.5" thickTop="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="60" t="s">
+      <c r="A3" s="163"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="79"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="177"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -5035,117 +5088,121 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="58" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="59"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="160"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50" t="s">
+      <c r="J2" s="154"/>
+      <c r="K2" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="84" t="s">
+      <c r="L2" s="154"/>
+      <c r="M2" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="84" t="s">
+      <c r="N2" s="182"/>
+      <c r="O2" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="84" t="s">
+      <c r="P2" s="182"/>
+      <c r="Q2" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="85"/>
+      <c r="R2" s="182"/>
     </row>
-    <row r="3" spans="1:18" ht="249" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:18" ht="141.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="158"/>
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5175,61 +5232,68 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="56" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="157" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" thickTop="1" thickBot="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -5253,216 +5317,236 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="35.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="101" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="107" t="s">
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="113" t="s">
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="115"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="218"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="118"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="221"/>
     </row>
     <row r="3" spans="1:27" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="119" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122" t="s">
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="119" t="s">
+      <c r="H3" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="126" t="s">
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="126" t="s">
+      <c r="M3" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="126" t="s">
+      <c r="O3" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="124" t="s">
+      <c r="P3" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="119" t="s">
+      <c r="Q3" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="122" t="s">
+      <c r="R3" s="191"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="186" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="124" t="s">
+      <c r="V3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="119" t="s">
+      <c r="W3" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="122" t="s">
+      <c r="X3" s="191"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="186" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="124" t="s">
+      <c r="AA3" s="188" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="204.75" thickBot="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="90" t="s">
+    <row r="4" spans="1:27" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A4" s="197"/>
+      <c r="B4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="90" t="s">
+      <c r="F4" s="187"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="90" t="s">
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="90" t="s">
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="90" t="s">
+      <c r="X4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="90" t="s">
+      <c r="Y4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="125"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="H1:P2"/>
-    <mergeCell ref="Q1:V2"/>
     <mergeCell ref="W1:AA2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="H1:P2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5473,102 +5557,118 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:T2"/>
+      <selection activeCell="S19" sqref="S19:AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" thickTop="1" thickBot="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="136" t="s">
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="222" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="136" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="222" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="136" t="s">
+      <c r="J1" s="223"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139" t="s">
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="141"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="227"/>
     </row>
-    <row r="2" spans="1:20" ht="346.5" thickTop="1" thickBot="1">
-      <c r="A2" s="130"/>
+    <row r="2" spans="1:20" ht="145.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="32"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="K2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="131" t="s">
+      <c r="L2" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="131" t="s">
+      <c r="M2" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="133" t="s">
+      <c r="O2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="134" t="s">
+      <c r="R2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="134" t="s">
+      <c r="S2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="135" t="s">
+      <c r="T2" s="37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5590,154 +5690,170 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="153" t="s">
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="231" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="155"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="233"/>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="156" t="s">
+      <c r="D2" s="235"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="156" t="s">
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="234" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159" t="s">
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="159" t="s">
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="159" t="s">
+      <c r="P2" s="238"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="239"/>
     </row>
-    <row r="3" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="142" t="s">
+    <row r="3" spans="1:20" ht="110.25" customHeight="1" thickBot="1">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="142" t="s">
+      <c r="J3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="144" t="s">
+      <c r="O3" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="144" t="s">
+      <c r="P3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="144" t="s">
+      <c r="R3" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="144" t="s">
+      <c r="S3" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="145" t="s">
+      <c r="T3" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="147"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="147"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="149"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
